--- a/Documentation/Calculations.xlsx
+++ b/Documentation/Calculations.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anszilas\Documents\GitHub\HEKK\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2FB57-EF0B-47C7-B5BB-672B4D8E3B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C512E2B-3FC6-4E62-88E6-AB896ED83970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SensorBox price" sheetId="1" r:id="rId1"/>
-    <sheet name="Energy saving example" sheetId="2" r:id="rId2"/>
+    <sheet name="SensorBox consumption" sheetId="4" r:id="rId1"/>
+    <sheet name="ControllerBox price" sheetId="3" r:id="rId2"/>
+    <sheet name="SensorBox price" sheetId="1" r:id="rId3"/>
+    <sheet name="Energy saving example" sheetId="2" r:id="rId4"/>
+    <sheet name="ControllerBox consumption" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>Component</t>
   </si>
@@ -117,70 +120,142 @@
     <t>5V DC fan</t>
   </si>
   <si>
-    <t>Lakás alapterület (m^2)</t>
-  </si>
-  <si>
-    <t>Levegő fajhő (kJ/[kg*K])</t>
-  </si>
-  <si>
-    <t>Gázár (EUR/MWh)</t>
-  </si>
-  <si>
-    <t>Lakás belmagasság (m)</t>
-  </si>
-  <si>
-    <t>Levegő sűrűség (kg/m^3)</t>
-  </si>
-  <si>
-    <t>Áram ár (EUR/KWh)</t>
-  </si>
-  <si>
-    <t>Kezdő hőm. (°C)</t>
-  </si>
-  <si>
     <t>EUR/HUF</t>
   </si>
   <si>
-    <t>Szellőztetés utáni hőm. (°C)</t>
-  </si>
-  <si>
-    <t>Kazán hatásfok</t>
-  </si>
-  <si>
     <t>deltaT (K)</t>
   </si>
   <si>
-    <t>lakás térfogat (m^3)</t>
-  </si>
-  <si>
-    <t>levegő tömeg (kg)</t>
-  </si>
-  <si>
     <t>deltaQ (kJ)</t>
   </si>
   <si>
     <t>deltaQ (kWh)</t>
   </si>
   <si>
-    <t>deltaPénz (EUR)</t>
-  </si>
-  <si>
-    <t>deltaPénz (Ft)</t>
-  </si>
-  <si>
-    <t>Spórolás egy télen HUF</t>
-  </si>
-  <si>
-    <t>Szellőztetés naponta</t>
-  </si>
-  <si>
-    <t>Spórolás egy télen EUR</t>
-  </si>
-  <si>
-    <t>Éves spórolás HUF</t>
-  </si>
-  <si>
-    <t>Éves spórolás EUR</t>
+    <t>Active duty cycle</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>This is an estimated average price between the RF (pricier) and normal (cheaper) capacitors.</t>
+  </si>
+  <si>
+    <t>Flat size (m^2)</t>
+  </si>
+  <si>
+    <t>Flat height (m)</t>
+  </si>
+  <si>
+    <t>Starting temp. (°C)</t>
+  </si>
+  <si>
+    <t>Ending temp. (°C)</t>
+  </si>
+  <si>
+    <t>Air heat capacitance (kJ/[kg*K])</t>
+  </si>
+  <si>
+    <t>Air density (kg/m^3)</t>
+  </si>
+  <si>
+    <t>Gas price (EUR/MWh)</t>
+  </si>
+  <si>
+    <t>Elect. price (EUR/KWh)</t>
+  </si>
+  <si>
+    <t>Heating efficiency</t>
+  </si>
+  <si>
+    <t>volume (m^3)</t>
+  </si>
+  <si>
+    <t>air mass (kg)</t>
+  </si>
+  <si>
+    <t>deltaMoney (EUR)</t>
+  </si>
+  <si>
+    <t>deltaMoney (Ft)</t>
+  </si>
+  <si>
+    <t>Estimated savings (HUF/winter)</t>
+  </si>
+  <si>
+    <t>Est. savings (EUR/winter)</t>
+  </si>
+  <si>
+    <t>Est. savings (HUF/year)</t>
+  </si>
+  <si>
+    <t>Est. savings (EUR/year)</t>
+  </si>
+  <si>
+    <t>Num. of ventillations per day</t>
+  </si>
+  <si>
+    <t>5V DC fan (running at 3.3V)</t>
+  </si>
+  <si>
+    <t>Idle consumption (mA)</t>
+  </si>
+  <si>
+    <t>Active consumption (mA)</t>
+  </si>
+  <si>
+    <t>Average consumption (mA)</t>
+  </si>
+  <si>
+    <t>One measurement has to be 60s to be accurate, so this is assuming a measurement every 5 mins</t>
+  </si>
+  <si>
+    <t>Battery holder</t>
+  </si>
+  <si>
+    <t>One transmission every 5 mins, one transmission is assumed to be quite long (0,1s)</t>
+  </si>
+  <si>
+    <t>Running at 25% PWM duty cycle only while measuring</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>4 AAA batteries should last around 1.5 months (but the device can be used plugged in as well)</t>
+  </si>
+  <si>
+    <t>This is an estimated average price between the RF (pricier) and normal (cheaper) inductors.</t>
+  </si>
+  <si>
+    <t>Elco capacitor</t>
+  </si>
+  <si>
+    <t>01x06 connector</t>
+  </si>
+  <si>
+    <t>DC jack</t>
+  </si>
+  <si>
+    <t>Ferrite bead</t>
+  </si>
+  <si>
+    <t>SMD fuse</t>
+  </si>
+  <si>
+    <t>EC2-3NU relay</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>PN2222A</t>
+  </si>
+  <si>
+    <t>P78E05_1000</t>
+  </si>
+  <si>
+    <t>Linear actuator</t>
   </si>
 </sst>
 </file>
@@ -188,8 +263,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="#,##0\ &quot;Ft&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;Ft&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ [$€-1]"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -279,12 +354,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -566,11 +644,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75181827-F6C5-4D7F-B565-B46DFA857A5C}">
+  <dimension ref="C2:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1E-3</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G3">
+        <f>F3*E3+(1-F3)*D3</f>
+        <v>8.4996999999999989E-3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.6</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <f>F4*E4+(1-F4)*D4</f>
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
+        <f>0.2*0.25</f>
+        <v>0.05</v>
+      </c>
+      <c r="G5">
+        <f>F5*E5+(1-F5)*D5</f>
+        <v>3.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G3:G5)</f>
+        <v>4.0556996999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F641992-D3C0-47F9-BB57-915D1FE3579F}">
+  <dimension ref="B2:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1.04</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.08</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>512</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1823</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3.91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1006</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>19600</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <f>C3*D3+C4*D4+D5+C6*D6+C7*D7+C11*D11+D12+D14+D15+D18*C18+D20+D19+D21</f>
+        <v>24059</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <f>C8*D8+D9+D10+D13</f>
+        <v>2.1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <f>D16+D17</f>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <f>C25+C26*420+C27*430</f>
+        <v>26815.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -578,9 +1120,10 @@
     <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,16 +1133,28 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -607,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -627,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -641,7 +1196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -655,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -669,7 +1224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -683,7 +1238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -697,7 +1252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -705,13 +1260,16 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -725,7 +1283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -739,7 +1297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -753,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -767,7 +1325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -837,43 +1395,71 @@
         <v>10</v>
       </c>
     </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>550</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
-        <f>D8*C8+D9*C9+D11*C11+D13*C13+D14*C14+D15*C15+D20</f>
-        <v>2104</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C23">
+        <f>D8*C8+D9*C9+D11*C11+D13*C13+D14*C14+D15*C15+D20+D3*C3+D21+D22</f>
+        <v>3248</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24">
         <f>D7+D10+D12+D16+D18+D19+D17*C17</f>
         <v>7.1639999999999997</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25">
         <f>D5+D4+D6</f>
-        <v>6.4700000000000006</v>
-      </c>
-      <c r="D24" t="s">
+        <v>6.76</v>
+      </c>
+      <c r="D25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2">
-        <f>C22+C23*420+C24*430</f>
-        <v>7894.98</v>
+      <c r="C26" s="2">
+        <f>C23+C24*420+C25*430</f>
+        <v>9163.6799999999985</v>
       </c>
     </row>
   </sheetData>
@@ -882,68 +1468,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45619176-1AAB-4F2A-9925-3C8F3A8DD104}">
   <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>1.0035000000000001</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>3.5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>1.2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>420</v>
@@ -951,21 +1537,21 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <f>C5-C6</f>
@@ -974,7 +1560,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <f>C3*C4</f>
@@ -983,7 +1569,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <f>C10*F4</f>
@@ -992,7 +1578,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <f>C11*C9*F3</f>
@@ -1001,41 +1587,41 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <f>C12/(3600*I6)</f>
-        <v>1.6858800000000003</v>
+        <v>1.5326181818181819</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <f>C13/1000 * I3</f>
-        <v>0.42147000000000007</v>
+        <v>0.45978545454545461</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <f>C14*I5</f>
-        <v>177.01740000000004</v>
+        <v>193.10989090909092</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2">
         <f>C15*90*F17</f>
-        <v>20711.035800000005</v>
+        <v>22593.857236363641</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F17">
         <v>1.3</v>
@@ -1043,32 +1629,46 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4">
         <f>C17/I5</f>
-        <v>49.311990000000009</v>
+        <v>53.794898181818191</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2">
         <f>C17*1.5</f>
-        <v>31066.553700000008</v>
+        <v>33890.785854545466</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="4">
         <f>C18*1.5</f>
-        <v>73.967985000000013</v>
+        <v>80.692347272727289</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E81246-3AA5-4FE3-B46F-C70B41988570}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Calculations.xlsx
+++ b/Documentation/Calculations.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anszilas\Documents\GitHub\HEKK\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C512E2B-3FC6-4E62-88E6-AB896ED83970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F662EC1A-4031-4B44-A995-160997467BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SensorBox consumption" sheetId="4" r:id="rId1"/>
-    <sheet name="ControllerBox price" sheetId="3" r:id="rId2"/>
-    <sheet name="SensorBox price" sheetId="1" r:id="rId3"/>
-    <sheet name="Energy saving example" sheetId="2" r:id="rId4"/>
-    <sheet name="ControllerBox consumption" sheetId="5" r:id="rId5"/>
+    <sheet name="ControllerBox price" sheetId="3" r:id="rId1"/>
+    <sheet name="SensorBox price" sheetId="1" r:id="rId2"/>
+    <sheet name="ControllerBox consumption" sheetId="5" r:id="rId3"/>
+    <sheet name="SensorBox consumption" sheetId="4" r:id="rId4"/>
+    <sheet name="Energy saving example" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="81">
   <si>
     <t>Component</t>
   </si>
@@ -216,15 +216,9 @@
     <t>One transmission every 5 mins, one transmission is assumed to be quite long (0,1s)</t>
   </si>
   <si>
-    <t>Running at 25% PWM duty cycle only while measuring</t>
-  </si>
-  <si>
     <t>Conclusion</t>
   </si>
   <si>
-    <t>4 AAA batteries should last around 1.5 months (but the device can be used plugged in as well)</t>
-  </si>
-  <si>
     <t>This is an estimated average price between the RF (pricier) and normal (cheaper) inductors.</t>
   </si>
   <si>
@@ -256,6 +250,39 @@
   </si>
   <si>
     <t>Linear actuator</t>
+  </si>
+  <si>
+    <t>Running at 20% PWM duty cycle only while measuring</t>
+  </si>
+  <si>
+    <t>It is going at 15 mm/s, so a full opening should be around 20s. One full cycle is therefore 40s, and we assume 5 cycles a day -&gt; 200 sec/day</t>
+  </si>
+  <si>
+    <t>It is staying constantly in RX mode to detect incoming signals. Here we assume that this is the only ControllerBox, but some TX activity wouldn’t change much</t>
+  </si>
+  <si>
+    <t>The duty cycle is a very rough estimate</t>
+  </si>
+  <si>
+    <t>Sum energy cons. (mW)</t>
+  </si>
+  <si>
+    <t>Sum (on the battery's side) (mA)</t>
+  </si>
+  <si>
+    <t>This is assuming 1.5V batteries. As their voltage drops, the current draw will rise, but this effect is omitted here</t>
+  </si>
+  <si>
+    <t>4 AAA batteries should last around 2.5-3 months (but the device can be used plugged in as well)</t>
+  </si>
+  <si>
+    <t>EU electr. Price (EUR/kWh)</t>
+  </si>
+  <si>
+    <t>Electr. Price / year</t>
+  </si>
+  <si>
+    <t>This means that on average it should consume around 6 Wh/day. The cost of this electricity is neglegable</t>
   </si>
 </sst>
 </file>
@@ -644,136 +671,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75181827-F6C5-4D7F-B565-B46DFA857A5C}">
-  <dimension ref="C2:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>1E-3</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G3">
-        <f>F3*E3+(1-F3)*D3</f>
-        <v>8.4996999999999989E-3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="E4">
-        <v>2.6</v>
-      </c>
-      <c r="F4">
-        <v>0.2</v>
-      </c>
-      <c r="G4">
-        <f>F4*E4+(1-F4)*D4</f>
-        <v>0.54720000000000002</v>
-      </c>
-      <c r="H4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>70</v>
-      </c>
-      <c r="F5">
-        <f>0.2*0.25</f>
-        <v>0.05</v>
-      </c>
-      <c r="G5">
-        <f>F5*E5+(1-F5)*D5</f>
-        <v>3.5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <f>SUM(G3:G5)</f>
-        <v>4.0556996999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F641992-D3C0-47F9-BB57-915D1FE3579F}">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,7 +757,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -869,7 +771,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -897,7 +799,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -911,7 +813,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -925,7 +827,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -953,7 +855,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -967,7 +869,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1023,7 +925,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1037,7 +939,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1051,7 +953,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1107,7 +1009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
@@ -1266,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -1411,7 +1313,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1468,7 +1370,280 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E81246-3AA5-4FE3-B46F-C70B41988570}">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2900</v>
+      </c>
+      <c r="E3">
+        <f>200/(3600*24)</f>
+        <v>2.3148148148148147E-3</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v>6.7129629629629628</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>E4*D4+(1-E4)*C4</f>
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>1E-3</v>
+      </c>
+      <c r="F5">
+        <f>E5*D5+(1-E5)*C5</f>
+        <v>20.18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7">
+        <f>F3*24 + (F4+F5)*3.3</f>
+        <v>240.90511111111113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <f>F7/1000*24 /1000 * C11 * 365</f>
+        <v>0.56767844002666679</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75181827-F6C5-4D7F-B565-B46DFA857A5C}">
+  <dimension ref="B2:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1E-3</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F3">
+        <f>E3*D3+(1-E3)*C3</f>
+        <v>8.4996999999999989E-3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.6</v>
+      </c>
+      <c r="E4">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <f>E4*D4+(1-E4)*C4</f>
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <f>0.2*0.2</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="F5">
+        <f>E5*D5+(1-E5)*C5</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <f>SUM(F3:F5) * (3.3/6)</f>
+        <v>1.6256348350000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45619176-1AAB-4F2A-9925-3C8F3A8DD104}">
   <dimension ref="B3:I21"/>
   <sheetViews>
@@ -1657,18 +1832,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E81246-3AA5-4FE3-B46F-C70B41988570}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Documentation/Calculations.xlsx
+++ b/Documentation/Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anszilas\Documents\GitHub\HEKK\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F662EC1A-4031-4B44-A995-160997467BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EBAB28-CE2D-41E3-9966-A260B48AF37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ControllerBox price" sheetId="3" r:id="rId1"/>
@@ -674,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F641992-D3C0-47F9-BB57-915D1FE3579F}">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1013,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1648,7 +1648,7 @@
   <dimension ref="B3:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1664,7 +1664,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>37</v>
@@ -1721,7 +1721,7 @@
         <v>41</v>
       </c>
       <c r="I6">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C10">
         <f>C3*C4</f>
-        <v>210</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C11">
         <f>C10*F4</f>
-        <v>252</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C12">
         <f>C11*C9*F3</f>
-        <v>3034.5840000000003</v>
+        <v>2528.8200000000002</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C13">
         <f>C12/(3600*I6)</f>
-        <v>1.5326181818181819</v>
+        <v>1.4049</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="C14">
         <f>C13/1000 * I3</f>
-        <v>0.45978545454545461</v>
+        <v>0.42146999999999996</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C15">
         <f>C14*I5</f>
-        <v>193.10989090909092</v>
+        <v>177.01739999999998</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="C17" s="2">
         <f>C15*90*F17</f>
-        <v>22593.857236363641</v>
+        <v>20711.035799999998</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C18" s="4">
         <f>C17/I5</f>
-        <v>53.794898181818191</v>
+        <v>49.311989999999994</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C20" s="2">
         <f>C17*1.5</f>
-        <v>33890.785854545466</v>
+        <v>31066.553699999997</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C21" s="4">
         <f>C18*1.5</f>
-        <v>80.692347272727289</v>
+        <v>73.967984999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Calculations.xlsx
+++ b/Documentation/Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anszilas\Documents\GitHub\HEKK\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EBAB28-CE2D-41E3-9966-A260B48AF37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5BE70C-3940-4F0C-92EF-F5AD437564D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ControllerBox price" sheetId="3" r:id="rId1"/>
@@ -674,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F641992-D3C0-47F9-BB57-915D1FE3579F}">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1013,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1519,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75181827-F6C5-4D7F-B565-B46DFA857A5C}">
   <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1533,7 +1533,7 @@
     <col min="8" max="8" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45619176-1AAB-4F2A-9925-3C8F3A8DD104}">
   <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1664,7 +1664,7 @@
         <v>33</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>37</v>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C10">
         <f>C3*C4</f>
-        <v>175</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="C11">
         <f>C10*F4</f>
-        <v>210</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C12">
         <f>C11*C9*F3</f>
-        <v>2528.8200000000002</v>
+        <v>3034.5840000000003</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C13">
         <f>C12/(3600*I6)</f>
-        <v>1.4049</v>
+        <v>1.6858800000000003</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="C14">
         <f>C13/1000 * I3</f>
-        <v>0.42146999999999996</v>
+        <v>0.5057640000000001</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C15">
         <f>C14*I5</f>
-        <v>177.01739999999998</v>
+        <v>212.42088000000004</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="C17" s="2">
         <f>C15*90*F17</f>
-        <v>20711.035799999998</v>
+        <v>24853.242960000003</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C18" s="4">
         <f>C17/I5</f>
-        <v>49.311989999999994</v>
+        <v>59.174388000000008</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C20" s="2">
         <f>C17*1.5</f>
-        <v>31066.553699999997</v>
+        <v>37279.864440000005</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C21" s="4">
         <f>C18*1.5</f>
-        <v>73.967984999999999</v>
+        <v>88.761582000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Calculations.xlsx
+++ b/Documentation/Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anszilas\Documents\GitHub\HEKK\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5BE70C-3940-4F0C-92EF-F5AD437564D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CAA8BD-517F-4169-99D8-3A3BAE77E599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ControllerBox price" sheetId="3" r:id="rId1"/>
@@ -1519,7 +1519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75181827-F6C5-4D7F-B565-B46DFA857A5C}">
   <dimension ref="B2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45619176-1AAB-4F2A-9925-3C8F3A8DD104}">
   <dimension ref="B3:I21"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,7 +1676,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
@@ -1715,7 +1715,7 @@
         <v>36</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>41</v>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="C9">
         <f>C5-C6</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="C12">
         <f>C11*C9*F3</f>
-        <v>3034.5840000000003</v>
+        <v>2528.8200000000002</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C13">
         <f>C12/(3600*I6)</f>
-        <v>1.6858800000000003</v>
+        <v>1.4049</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="C14">
         <f>C13/1000 * I3</f>
-        <v>0.5057640000000001</v>
+        <v>0.35122500000000001</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="C15">
         <f>C14*I5</f>
-        <v>212.42088000000004</v>
+        <v>147.5145</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -1793,13 +1793,13 @@
       </c>
       <c r="C17" s="2">
         <f>C15*90*F17</f>
-        <v>24853.242960000003</v>
+        <v>19914.4575</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F17">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="C18" s="4">
         <f>C17/I5</f>
-        <v>59.174388000000008</v>
+        <v>47.415375000000004</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C20" s="2">
         <f>C17*1.5</f>
-        <v>37279.864440000005</v>
+        <v>29871.686249999999</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C21" s="4">
         <f>C18*1.5</f>
-        <v>88.761582000000004</v>
+        <v>71.123062500000003</v>
       </c>
     </row>
   </sheetData>
